--- a/results/FrequencyTables/26607397_LTR-3.xlsx
+++ b/results/FrequencyTables/26607397_LTR-3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.525252525252525</v>
+        <v>0.575530586766542</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.0162297128589263</v>
       </c>
       <c r="D2">
-        <v>0.0808080808080808</v>
+        <v>0.0599250936329588</v>
       </c>
       <c r="E2">
-        <v>0.939393939393939</v>
+        <v>0.946317103620474</v>
       </c>
       <c r="F2">
-        <v>0.0101010101010101</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="G2">
-        <v>0.939393939393939</v>
+        <v>0.942571785268414</v>
       </c>
       <c r="H2">
-        <v>0.0202020202020202</v>
+        <v>0.0137328339575531</v>
       </c>
       <c r="I2">
-        <v>0.757575757575758</v>
+        <v>0.727840199750312</v>
       </c>
       <c r="J2">
-        <v>0.0404040404040404</v>
+        <v>0.0424469413233458</v>
       </c>
       <c r="K2">
-        <v>0.0505050505050505</v>
+        <v>0.0387016229712859</v>
       </c>
       <c r="L2">
-        <v>0.0404040404040404</v>
+        <v>0.0374531835205993</v>
       </c>
       <c r="M2">
-        <v>0.898989898989899</v>
+        <v>0.84019975031211</v>
       </c>
       <c r="N2">
-        <v>0.0101010101010101</v>
+        <v>0.00998751560549313</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0404040404040404</v>
+        <v>0.0324594257178527</v>
       </c>
       <c r="Q2">
-        <v>0.939393939393939</v>
+        <v>0.928838951310861</v>
       </c>
       <c r="R2">
-        <v>0.0101010101010101</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="X2">
-        <v>0.0101010101010101</v>
+        <v>0.00749063670411985</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.0649188514357054</v>
       </c>
       <c r="C3">
-        <v>0.252525252525253</v>
+        <v>0.347066167290886</v>
       </c>
       <c r="D3">
-        <v>0.767676767676768</v>
+        <v>0.84019975031211</v>
       </c>
       <c r="E3">
-        <v>0.0404040404040404</v>
+        <v>0.0436953807740325</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00124843945068664</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0808080808080808</v>
+        <v>0.0699126092384519</v>
       </c>
       <c r="I3">
-        <v>0.0404040404040404</v>
+        <v>0.0374531835205993</v>
       </c>
       <c r="J3">
-        <v>0.111111111111111</v>
+        <v>0.131086142322097</v>
       </c>
       <c r="K3">
-        <v>0.909090909090909</v>
+        <v>0.920099875156055</v>
       </c>
       <c r="L3">
-        <v>0.95959595959596</v>
+        <v>0.958801498127341</v>
       </c>
       <c r="M3">
-        <v>0.0606060606060606</v>
+        <v>0.108614232209738</v>
       </c>
       <c r="N3">
-        <v>0.898989898989899</v>
+        <v>0.920099875156055</v>
       </c>
       <c r="O3">
-        <v>0.0202020202020202</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00124843945068664</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.848484848484849</v>
+        <v>0.852684144818976</v>
       </c>
       <c r="S3">
-        <v>0.98989898989899</v>
+        <v>0.983770287141074</v>
       </c>
       <c r="T3">
-        <v>0.0505050505050505</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="V3">
-        <v>0.0202020202020202</v>
+        <v>0.0212234706616729</v>
       </c>
       <c r="W3">
-        <v>0.0404040404040404</v>
+        <v>0.0324594257178527</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00124843945068664</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,55 +613,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.444444444444444</v>
+        <v>0.35330836454432</v>
       </c>
       <c r="C4">
-        <v>0.0303030303030303</v>
+        <v>0.0249687890137328</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="F4">
-        <v>0.939393939393939</v>
+        <v>0.946317103620474</v>
       </c>
       <c r="G4">
-        <v>0.0505050505050505</v>
+        <v>0.0536828963795256</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00249687890137328</v>
       </c>
       <c r="I4">
-        <v>0.0202020202020202</v>
+        <v>0.0199750312109863</v>
       </c>
       <c r="J4">
-        <v>0.0707070707070707</v>
+        <v>0.0536828963795256</v>
       </c>
       <c r="K4">
-        <v>0.0404040404040404</v>
+        <v>0.0387016229712859</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00124843945068664</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="N4">
-        <v>0.0101010101010101</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.95959595959596</v>
+        <v>0.963795255930087</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="R4">
-        <v>0.121212121212121</v>
+        <v>0.133583021223471</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00249687890137328</v>
       </c>
       <c r="V4">
-        <v>0.0707070707070707</v>
+        <v>0.0536828963795256</v>
       </c>
       <c r="W4">
-        <v>0.94949494949495</v>
+        <v>0.953807740324594</v>
       </c>
       <c r="X4">
-        <v>0.94949494949495</v>
+        <v>0.955056179775281</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0202020202020202</v>
+        <v>0.00624219725343321</v>
       </c>
       <c r="C5">
-        <v>0.707070707070707</v>
+        <v>0.611735330836454</v>
       </c>
       <c r="D5">
-        <v>0.141414141414141</v>
+        <v>0.0936329588014981</v>
       </c>
       <c r="E5">
-        <v>0.0101010101010101</v>
+        <v>0.00499375780274657</v>
       </c>
       <c r="F5">
-        <v>0.0505050505050505</v>
+        <v>0.0411985018726592</v>
       </c>
       <c r="G5">
-        <v>0.0101010101010101</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="H5">
-        <v>0.898989898989899</v>
+        <v>0.913857677902622</v>
       </c>
       <c r="I5">
-        <v>0.181818181818182</v>
+        <v>0.214731585518102</v>
       </c>
       <c r="J5">
-        <v>0.777777777777778</v>
+        <v>0.772784019975031</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00124843945068664</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00249687890137328</v>
       </c>
       <c r="M5">
-        <v>0.0404040404040404</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="N5">
-        <v>0.0808080808080808</v>
+        <v>0.066167290886392</v>
       </c>
       <c r="O5">
-        <v>0.97979797979798</v>
+        <v>0.98501872659176</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00249687890137328</v>
       </c>
       <c r="Q5">
-        <v>0.0606060606060606</v>
+        <v>0.0674157303370786</v>
       </c>
       <c r="R5">
-        <v>0.0202020202020202</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="S5">
-        <v>0.0101010101010101</v>
+        <v>0.0124843945068664</v>
       </c>
       <c r="T5">
-        <v>0.94949494949495</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.983770287141074</v>
       </c>
       <c r="V5">
-        <v>0.909090909090909</v>
+        <v>0.925093632958802</v>
       </c>
       <c r="W5">
-        <v>0.0101010101010101</v>
+        <v>0.00249687890137328</v>
       </c>
       <c r="X5">
-        <v>0.0404040404040404</v>
+        <v>0.0362047440699126</v>
       </c>
     </row>
   </sheetData>
